--- a/1.1.5/Resident Services/TC_MOSIP_11303.xlsx
+++ b/1.1.5/Resident Services/TC_MOSIP_11303.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\1.1.5\rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -86,9 +86,6 @@
     <t>Verify request OTP through new resident  OTP service</t>
   </si>
   <si>
-    <t>Verify request OTP should expire after cofigured time</t>
-  </si>
-  <si>
     <t>Verify request OTP  using valid data</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>OTP should not be send to resident and should get appropriate error/ validation message</t>
+  </si>
+  <si>
+    <t>Verify  OTP should expire after cofigured time</t>
+  </si>
+  <si>
+    <t>OTP should get expire</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +545,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -565,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -588,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
